--- a/data/trans_orig/Q5410-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5410-Provincia-trans_orig.xlsx
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5740</v>
+        <v>5735</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0513106910695076</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1622111021691109</v>
+        <v>0.1620771053621666</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5274</v>
+        <v>6045</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03137509638647046</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.134430807903409</v>
+        <v>0.1540890124827117</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -833,19 +833,19 @@
         <v>3047</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>895</v>
+        <v>880</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8992</v>
+        <v>8750</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04082918350234097</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01198931830283113</v>
+        <v>0.0117993541719587</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1205034911385573</v>
+        <v>0.1172645031808477</v>
       </c>
     </row>
     <row r="6">
@@ -862,7 +862,7 @@
         <v>33570</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>29646</v>
+        <v>29651</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>35386</v>
@@ -871,7 +871,7 @@
         <v>0.9486893089304924</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8377888978308891</v>
+        <v>0.8379228946378334</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -883,7 +883,7 @@
         <v>38000</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>33957</v>
+        <v>33186</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>39231</v>
@@ -892,7 +892,7 @@
         <v>0.9686249036135295</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8655691920965917</v>
+        <v>0.8459109875172882</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -904,19 +904,19 @@
         <v>71570</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>65625</v>
+        <v>65867</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>73722</v>
+        <v>73737</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.959170816497659</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8794965088614438</v>
+        <v>0.8827354968191523</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9880106816971689</v>
+        <v>0.9882006458280413</v>
       </c>
     </row>
     <row r="7">
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6927</v>
+        <v>6500</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01250400865766913</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07077453934326464</v>
+        <v>0.06640727903523155</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>7108</v>
+        <v>6068</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007438369720157359</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04320096359144703</v>
+        <v>0.03688306325090063</v>
       </c>
     </row>
     <row r="9">
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5320</v>
+        <v>5366</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01510437098854368</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07982136057921781</v>
+        <v>0.08050462109406249</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5612</v>
+        <v>5563</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01149258140362416</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05734167870959427</v>
+        <v>0.0568421020030514</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>6748</v>
+        <v>6883</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.012955793918616</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04101372195552465</v>
+        <v>0.04183713698248973</v>
       </c>
     </row>
     <row r="10">
@@ -1142,7 +1142,7 @@
         <v>65647</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>61334</v>
+        <v>61288</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>66654</v>
@@ -1151,7 +1151,7 @@
         <v>0.9848956290114563</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9201786394207794</v>
+        <v>0.9194953789059359</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1163,7 +1163,7 @@
         <v>95526</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>89699</v>
+        <v>90624</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>97875</v>
@@ -1172,7 +1172,7 @@
         <v>0.9760034099387067</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9164684460255562</v>
+        <v>0.9259138126872224</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -1184,19 +1184,19 @@
         <v>161174</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>154422</v>
+        <v>156288</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>163507</v>
+        <v>163528</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9796058363612267</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9385673347809969</v>
+        <v>0.9499092829604107</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9937910727513091</v>
+        <v>0.9939161728316378</v>
       </c>
     </row>
     <row r="11">
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>3.517171966334041e-06</v>
+        <v>3.956066544932365e-06</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>2.566705934061234e-06</v>
+        <v>2.158129722543071e-06</v>
       </c>
     </row>
     <row r="14">
@@ -1420,7 +1420,7 @@
         <v>0.9999993354400705</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9999964828280338</v>
+        <v>0.9999960439334576</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1441,7 +1441,7 @@
         <v>0.9999995872045745</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.999997433294066</v>
+        <v>0.9999978418702775</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -1596,19 +1596,19 @@
         <v>5299</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2018</v>
+        <v>1141</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10873</v>
+        <v>11532</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07131080844747111</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02715857925362192</v>
+        <v>0.01535033962316964</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1463112370603054</v>
+        <v>0.1551771072304717</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -1617,19 +1617,19 @@
         <v>5299</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1991</v>
+        <v>2000</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>11419</v>
+        <v>11502</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04094200003361293</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01538145263015884</v>
+        <v>0.01544934637904897</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08822132163944824</v>
+        <v>0.08886141721280942</v>
       </c>
     </row>
     <row r="18">
@@ -1659,19 +1659,19 @@
         <v>69014</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>63440</v>
+        <v>62781</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>72295</v>
+        <v>73172</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9286891915525289</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8536887629396954</v>
+        <v>0.8448228927695283</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9728414207463781</v>
+        <v>0.9846496603768305</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>132</v>
@@ -1680,19 +1680,19 @@
         <v>124137</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>118017</v>
+        <v>117934</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>127445</v>
+        <v>127436</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9590579999663871</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9117786783605517</v>
+        <v>0.9111385827871906</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9846185473698411</v>
+        <v>0.9845506536209511</v>
       </c>
     </row>
     <row r="19">
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5282</v>
+        <v>4626</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02766554269098331</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1280623822853061</v>
+        <v>0.1121582546696013</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5772</v>
+        <v>5264</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01616434424584546</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08175877413052045</v>
+        <v>0.07456716074730546</v>
       </c>
     </row>
     <row r="21">
@@ -1847,19 +1847,19 @@
         <v>4281</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1668</v>
+        <v>1631</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8903</v>
+        <v>8473</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1458809684774247</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05683091757723341</v>
+        <v>0.05556458943773546</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3033573235903146</v>
+        <v>0.2887256755050336</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6867</v>
+        <v>7138</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0555552329601449</v>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1664878563095517</v>
+        <v>0.1730676880712325</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>7</v>
@@ -1889,19 +1889,19 @@
         <v>6573</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2816</v>
+        <v>2921</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>13126</v>
+        <v>12605</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09310570578082994</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03989615135270371</v>
+        <v>0.04138262723226621</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1859345941914292</v>
+        <v>0.1785646898949213</v>
       </c>
     </row>
     <row r="22">
@@ -1918,19 +1918,19 @@
         <v>25066</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20444</v>
+        <v>20874</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27679</v>
+        <v>27716</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8541190315225753</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6966426764096854</v>
+        <v>0.7112743244949663</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9431690824227665</v>
+        <v>0.9444354105622645</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>36</v>
@@ -1939,19 +1939,19 @@
         <v>37813</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>33092</v>
+        <v>31962</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>41246</v>
+        <v>40127</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9167792243488718</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8023177623829572</v>
+        <v>0.7749014756549444</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>1</v>
+        <v>0.9728731229516675</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>65</v>
@@ -1960,19 +1960,19 @@
         <v>62879</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>55138</v>
+        <v>56646</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>66949</v>
+        <v>66915</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8907299499733246</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7810653218081712</v>
+        <v>0.802425367930811</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9483772613421483</v>
+        <v>0.9478986041975564</v>
       </c>
     </row>
     <row r="23">
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4647</v>
+        <v>4960</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.007914843998951463</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04387212315636137</v>
+        <v>0.04682816184850948</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>6698</v>
+        <v>6428</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01725170467702855</v>
@@ -2313,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05719088181145162</v>
+        <v>0.05488761400732271</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3</v>
@@ -2322,19 +2322,19 @@
         <v>2859</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>7954</v>
+        <v>8027</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01281754986199601</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.003797969181055617</v>
+        <v>0.003756887233179674</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03565933279299863</v>
+        <v>0.03598639616303982</v>
       </c>
     </row>
     <row r="29">
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6596</v>
+        <v>5695</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.008845973945760473</v>
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0563201955778888</v>
+        <v>0.04862366621407744</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1</v>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5128</v>
+        <v>5187</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.004644945429040179</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02298889341937984</v>
+        <v>0.02325354385969151</v>
       </c>
     </row>
     <row r="30">
@@ -2414,7 +2414,7 @@
         <v>105090</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>101281</v>
+        <v>100968</v>
       </c>
       <c r="F30" s="5" t="n">
         <v>105928</v>
@@ -2423,7 +2423,7 @@
         <v>0.9920851560010485</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.956127876843639</v>
+        <v>0.9531718381514904</v>
       </c>
       <c r="I30" s="6" t="n">
         <v>1</v>
@@ -2435,19 +2435,19 @@
         <v>114064</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>108622</v>
+        <v>108857</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>116230</v>
+        <v>116225</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.973902321377211</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9274308600504498</v>
+        <v>0.9294444080014748</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9923946057601829</v>
+        <v>0.9923493583786546</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>221</v>
@@ -2456,19 +2456,19 @@
         <v>219154</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>213169</v>
+        <v>213867</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>221942</v>
+        <v>222000</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9825375047089638</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9557056247411042</v>
+        <v>0.9588341050698668</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9950375312647601</v>
+        <v>0.9952990624654778</v>
       </c>
     </row>
     <row r="31">
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>7486</v>
+        <v>8139</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01545829018917151</v>
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04885526067744084</v>
+        <v>0.05311769769999924</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>7140</v>
+        <v>8180</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.008934136361163868</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02693207852638175</v>
+        <v>0.03085473446875306</v>
       </c>
     </row>
     <row r="33">
@@ -2636,19 +2636,19 @@
         <v>6702</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>2399</v>
+        <v>2548</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>14607</v>
+        <v>14827</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.0437395337152817</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.01565793538262236</v>
+        <v>0.01662900645958062</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.09532944775745687</v>
+        <v>0.09676776599181998</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>5</v>
@@ -2657,19 +2657,19 @@
         <v>6702</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>2608</v>
+        <v>2447</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>15339</v>
+        <v>15298</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.02527931315843637</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.009835929285126176</v>
+        <v>0.009229374197176145</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.05785545571509011</v>
+        <v>0.05770383345830245</v>
       </c>
     </row>
     <row r="34">
@@ -2699,19 +2699,19 @@
         <v>144154</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>135451</v>
+        <v>135435</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>149378</v>
+        <v>149248</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.9408021760955468</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8840009301119764</v>
+        <v>0.883894807504648</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9748911628877569</v>
+        <v>0.9740455182469187</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>253</v>
@@ -2720,19 +2720,19 @@
         <v>256047</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>248007</v>
+        <v>247634</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>261236</v>
+        <v>261314</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9657865504803997</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9354577893603913</v>
+        <v>0.934052702676726</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9853567790726629</v>
+        <v>0.9856498671853136</v>
       </c>
     </row>
     <row r="35">
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4695</v>
+        <v>4237</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.001668579154169476</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.009344603514075659</v>
+        <v>0.008432470631009444</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>6</v>
@@ -2845,19 +2845,19 @@
         <v>6754</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3231</v>
+        <v>2927</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>14286</v>
+        <v>14012</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.009978784360956793</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.00477325294181689</v>
+        <v>0.004324428018741523</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02110702204958015</v>
+        <v>0.02070177640294852</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>7</v>
@@ -2866,19 +2866,19 @@
         <v>7592</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>3080</v>
+        <v>3193</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>14753</v>
+        <v>15509</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.006438067599248701</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.002611313066946573</v>
+        <v>0.002707344425303069</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01250986159808919</v>
+        <v>0.01315133483053286</v>
       </c>
     </row>
     <row r="37">
@@ -2895,19 +2895,19 @@
         <v>7104</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3434</v>
+        <v>3522</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>14158</v>
+        <v>13962</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01413746032838101</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.006833941962540962</v>
+        <v>0.007009777575920179</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.02817784699401839</v>
+        <v>0.02778783391648132</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>16</v>
@@ -2916,19 +2916,19 @@
         <v>17685</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>10088</v>
+        <v>10270</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>29615</v>
+        <v>28165</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02612809468588525</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01490424926158812</v>
+        <v>0.01517378369552474</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04375470705003394</v>
+        <v>0.04161230595283975</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>24</v>
@@ -2937,19 +2937,19 @@
         <v>24788</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>15986</v>
+        <v>17047</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>37366</v>
+        <v>37699</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02101926295469611</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01355523492261325</v>
+        <v>0.01445468806707761</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0316843184493257</v>
+        <v>0.03196710226323406</v>
       </c>
     </row>
     <row r="38">
@@ -2966,19 +2966,19 @@
         <v>494524</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>486818</v>
+        <v>487510</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>498298</v>
+        <v>498172</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9841939605174496</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.968857422983237</v>
+        <v>0.9702340947614309</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9917041118893986</v>
+        <v>0.9914534745546774</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>639</v>
@@ -2987,19 +2987,19 @@
         <v>652403</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>639844</v>
+        <v>639905</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>661048</v>
+        <v>661311</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9638931209531579</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9453375123919308</v>
+        <v>0.9454281418610584</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9766658637456032</v>
+        <v>0.9770531233842533</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1153</v>
@@ -3008,19 +3008,19 @@
         <v>1146927</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1134464</v>
+        <v>1133097</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1157096</v>
+        <v>1156210</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9725426694460552</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9619744879196822</v>
+        <v>0.9608153686882935</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9811649434734441</v>
+        <v>0.9804137395142198</v>
       </c>
     </row>
     <row r="39">
@@ -3372,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4168</v>
+        <v>5164</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02076701090068511</v>
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08524941810709037</v>
+        <v>0.1056091047597522</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5233</v>
+        <v>5668</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01089762170143095</v>
@@ -3402,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05616367086445898</v>
+        <v>0.06083357484777482</v>
       </c>
     </row>
     <row r="5">
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4283</v>
+        <v>5851</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0226494778609362</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09671670767770339</v>
+        <v>0.1321367789616165</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -3440,19 +3440,19 @@
         <v>3204</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8550</v>
+        <v>7629</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06553332098868675</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02012985792065467</v>
+        <v>0.02018071540077833</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1748699798547375</v>
+        <v>0.1560213811661909</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -3461,19 +3461,19 @@
         <v>4207</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1076</v>
+        <v>998</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9913</v>
+        <v>8996</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04515304863213069</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01154804037277414</v>
+        <v>0.01071461800282959</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1063892404208248</v>
+        <v>0.09655262054786419</v>
       </c>
     </row>
     <row r="6">
@@ -3490,7 +3490,7 @@
         <v>43278</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>39998</v>
+        <v>38430</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>44281</v>
@@ -3499,7 +3499,7 @@
         <v>0.9773505221390638</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.903283292322296</v>
+        <v>0.8678632210383829</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -3511,19 +3511,19 @@
         <v>44674</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>39228</v>
+        <v>39552</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>47797</v>
+        <v>47773</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9136996681106282</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8023023158499423</v>
+        <v>0.8089299606713277</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9775639184324419</v>
+        <v>0.977070309198114</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>82</v>
@@ -3532,19 +3532,19 @@
         <v>87952</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>82492</v>
+        <v>82506</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>91159</v>
+        <v>91260</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9439493296664384</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8853423542135099</v>
+        <v>0.8854900513296067</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9783619355417507</v>
+        <v>0.9794519175248505</v>
       </c>
     </row>
     <row r="7">
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7418</v>
+        <v>6708</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0268959715889703</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09365536387892041</v>
+        <v>0.08469378038303609</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -3657,19 +3657,19 @@
         <v>4467</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1108</v>
+        <v>1137</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12180</v>
+        <v>11865</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04375209611102263</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01085689960767423</v>
+        <v>0.01113505145171767</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.11930118002826</v>
+        <v>0.1162157017858258</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -3678,19 +3678,19 @@
         <v>6597</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2237</v>
+        <v>2250</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>16102</v>
+        <v>15079</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03638815910546602</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01233633552195144</v>
+        <v>0.01240926324943907</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08881805629427862</v>
+        <v>0.08317498352804152</v>
       </c>
     </row>
     <row r="9">
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10126</v>
+        <v>10273</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02686467981069724</v>
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1278477223361615</v>
+        <v>0.1297007727940253</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -3728,19 +3728,19 @@
         <v>4439</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2020</v>
+        <v>1143</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>11381</v>
+        <v>10224</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04348027693652751</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01978235136450468</v>
+        <v>0.0111946082695344</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1114751909118321</v>
+        <v>0.1001447421024743</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>5</v>
@@ -3749,19 +3749,19 @@
         <v>6567</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2224</v>
+        <v>2189</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>14496</v>
+        <v>14704</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.036221419161465</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0122655094178711</v>
+        <v>0.01207422814582433</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07996008323636267</v>
+        <v>0.08110531080045395</v>
       </c>
     </row>
     <row r="10">
@@ -3778,19 +3778,19 @@
         <v>74945</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>67625</v>
+        <v>67150</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>78169</v>
+        <v>78142</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9462393486003324</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8538220359042851</v>
+        <v>0.8478151937883394</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9869474436246903</v>
+        <v>0.9865984618892472</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>86</v>
@@ -3799,19 +3799,19 @@
         <v>93187</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>85172</v>
+        <v>83659</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>98549</v>
+        <v>97682</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9127676269524498</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8342623606664427</v>
+        <v>0.8194398938538481</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9652906885899138</v>
+        <v>0.9567954369856931</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>152</v>
@@ -3820,19 +3820,19 @@
         <v>168132</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>157106</v>
+        <v>158391</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>174710</v>
+        <v>174555</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.927390421733069</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8665731393348042</v>
+        <v>0.8736605901225148</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9636732144013472</v>
+        <v>0.9628160048908458</v>
       </c>
     </row>
     <row r="11">
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6092</v>
+        <v>6569</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03579789470335264</v>
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1092813195372144</v>
+        <v>0.1178460180128594</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -3945,19 +3945,19 @@
         <v>6557</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2233</v>
+        <v>2254</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13186</v>
+        <v>13041</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08199501576711242</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02792163017550037</v>
+        <v>0.02818233205073935</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1648965857300517</v>
+        <v>0.1630740112066307</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -3966,19 +3966,19 @@
         <v>8552</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4151</v>
+        <v>3307</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>15604</v>
+        <v>16120</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06301980509807599</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03058935988038684</v>
+        <v>0.02436772619042644</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1149824204794818</v>
+        <v>0.1187818599361379</v>
       </c>
     </row>
     <row r="13">
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4956</v>
+        <v>5055</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01779829586832619</v>
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08890390000863208</v>
+        <v>0.0906896622897248</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5388</v>
+        <v>5955</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0133384017994711</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06737344191384867</v>
+        <v>0.07446533154604289</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6291</v>
+        <v>7183</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01517027849588496</v>
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0463563906310636</v>
+        <v>0.05292578154290334</v>
       </c>
     </row>
     <row r="14">
@@ -4066,7 +4066,7 @@
         <v>52754</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>48459</v>
+        <v>47549</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>54787</v>
@@ -4075,10 +4075,10 @@
         <v>0.9464038094283211</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8693488495870548</v>
+        <v>0.8530109729481858</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9828678252910279</v>
+        <v>0.9828735548042831</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>68</v>
@@ -4087,19 +4087,19 @@
         <v>72344</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>66000</v>
+        <v>64852</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>76724</v>
+        <v>76644</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9046665824334165</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8253242509874741</v>
+        <v>0.810975657209562</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9594345498821409</v>
+        <v>0.9584346118120993</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>118</v>
@@ -4108,19 +4108,19 @@
         <v>125099</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>117720</v>
+        <v>117256</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>130455</v>
+        <v>130463</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.921809916406039</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8674414079839102</v>
+        <v>0.8640209888975982</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9612796971291183</v>
+        <v>0.9613373186933225</v>
       </c>
     </row>
     <row r="15">
@@ -4262,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5815</v>
+        <v>5463</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01823706784614753</v>
@@ -4271,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.090812958924848</v>
+        <v>0.08532430355826549</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -4283,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5999</v>
+        <v>7014</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01370077907865014</v>
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0701065134296653</v>
+        <v>0.08196417949185016</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -4304,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8053</v>
+        <v>7063</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01564225088012531</v>
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05383260827223978</v>
+        <v>0.04721069029396326</v>
       </c>
     </row>
     <row r="18">
@@ -4330,7 +4330,7 @@
         <v>62860</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>58213</v>
+        <v>58565</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>64028</v>
@@ -4339,7 +4339,7 @@
         <v>0.9817629321538525</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9091870410751525</v>
+        <v>0.9146756964417349</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -4351,7 +4351,7 @@
         <v>84402</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>79575</v>
+        <v>78560</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>85574</v>
@@ -4360,7 +4360,7 @@
         <v>0.9862992209213498</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9298934865703361</v>
+        <v>0.9180358205081496</v>
       </c>
       <c r="P18" s="6" t="n">
         <v>1</v>
@@ -4372,7 +4372,7 @@
         <v>147262</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>141549</v>
+        <v>142539</v>
       </c>
       <c r="T18" s="5" t="n">
         <v>149602</v>
@@ -4381,7 +4381,7 @@
         <v>0.9843577491198747</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9461673917277602</v>
+        <v>0.9527893097060368</v>
       </c>
       <c r="W18" s="6" t="n">
         <v>1</v>
@@ -4523,19 +4523,19 @@
         <v>4504</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1168</v>
+        <v>1130</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9931</v>
+        <v>10343</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1424881461975902</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03694689339393537</v>
+        <v>0.03575385439381508</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3141616269859475</v>
+        <v>0.3271706587790196</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -4547,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6074</v>
+        <v>6079</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03986398569660424</v>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1218415200338647</v>
+        <v>0.1219366195088377</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>6</v>
@@ -4565,19 +4565,19 @@
         <v>6492</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2228</v>
+        <v>2976</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>13244</v>
+        <v>14021</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0796859469693004</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02735014692491118</v>
+        <v>0.03653016948836974</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1625729088826359</v>
+        <v>0.1721050826889457</v>
       </c>
     </row>
     <row r="22">
@@ -4594,19 +4594,19 @@
         <v>27108</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21681</v>
+        <v>21269</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30444</v>
+        <v>30482</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8575118538024098</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6858383730140526</v>
+        <v>0.6728293412209803</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9630531066060647</v>
+        <v>0.964246145606185</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>46</v>
@@ -4615,7 +4615,7 @@
         <v>47868</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>43781</v>
+        <v>43776</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>49855</v>
@@ -4624,7 +4624,7 @@
         <v>0.9601360143033958</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8781584799661352</v>
+        <v>0.8780633804911623</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -4636,19 +4636,19 @@
         <v>74975</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>68223</v>
+        <v>67446</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>79239</v>
+        <v>78491</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9203140530306996</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8374270911173639</v>
+        <v>0.8278949173110542</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9726498530750889</v>
+        <v>0.9634698305116302</v>
       </c>
     </row>
     <row r="23">
@@ -4743,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5331</v>
+        <v>5287</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02041989866142973</v>
@@ -4752,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1029967102865826</v>
+        <v>0.1021620168367442</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -4761,19 +4761,19 @@
         <v>3243</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1060</v>
+        <v>1048</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8607</v>
+        <v>8556</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04619111604277585</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01509215981207513</v>
+        <v>0.01491972189425156</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1225839359385532</v>
+        <v>0.1218541816358434</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -4782,19 +4782,19 @@
         <v>4300</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1062</v>
+        <v>1088</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>9691</v>
+        <v>9722</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03525529666489777</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.008708528917478793</v>
+        <v>0.008917041261443352</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07945255576081009</v>
+        <v>0.07971044756213935</v>
       </c>
     </row>
     <row r="25">
@@ -4814,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6249</v>
+        <v>5221</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02100494521667841</v>
@@ -4823,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.120748228210816</v>
+        <v>0.1008809591208602</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -4835,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5379</v>
+        <v>6171</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01548589427849244</v>
@@ -4844,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0766116903979608</v>
+        <v>0.08788667117613293</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2</v>
@@ -4856,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>6928</v>
+        <v>7385</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01782786141586939</v>
@@ -4865,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05680296378635017</v>
+        <v>0.06054517836354532</v>
       </c>
     </row>
     <row r="26">
@@ -4882,7 +4882,7 @@
         <v>49612</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>44194</v>
+        <v>45297</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>51756</v>
@@ -4891,7 +4891,7 @@
         <v>0.9585751561218918</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8538828134095668</v>
+        <v>0.8752011736234393</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -4903,19 +4903,19 @@
         <v>65882</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>60420</v>
+        <v>60485</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>69115</v>
+        <v>69128</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9383229896787317</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8605296396318822</v>
+        <v>0.8614659628642861</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9843796446340323</v>
+        <v>0.984557037172695</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>113</v>
@@ -4924,19 +4924,19 @@
         <v>115494</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>108054</v>
+        <v>109004</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>119631</v>
+        <v>119795</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9469168419192329</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8859215118410567</v>
+        <v>0.8937112337029504</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9808352375942003</v>
+        <v>0.982184142996894</v>
       </c>
     </row>
     <row r="27">
@@ -5031,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7512</v>
+        <v>6048</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0177193549087776</v>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06691751436224831</v>
+        <v>0.05387780100612049</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -5052,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8224</v>
+        <v>7228</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01426788094361966</v>
@@ -5061,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05793330967617345</v>
+        <v>0.05091702966338919</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -5070,19 +5070,19 @@
         <v>4015</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>965</v>
+        <v>976</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>10086</v>
+        <v>9145</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01579201356046163</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.003796365074575528</v>
+        <v>0.003839033860156694</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03967426586445266</v>
+        <v>0.03597030749056673</v>
       </c>
     </row>
     <row r="29">
@@ -5099,19 +5099,19 @@
         <v>4307</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12469</v>
+        <v>13313</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03836243036572163</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.008988704743049993</v>
+        <v>0.009017098092300049</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1110716033082302</v>
+        <v>0.1185838265161722</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4</v>
@@ -5120,19 +5120,19 @@
         <v>4064</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9770</v>
+        <v>9389</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02862582630975555</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.007424082426076715</v>
+        <v>0.007371171220041947</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06882270643226522</v>
+        <v>0.06614023866695304</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7</v>
@@ -5141,19 +5141,19 @@
         <v>8370</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3278</v>
+        <v>4047</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>17014</v>
+        <v>17635</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03292540265562395</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01289336880323141</v>
+        <v>0.01591764086961762</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06692529576365883</v>
+        <v>0.06936623235060908</v>
       </c>
     </row>
     <row r="30">
@@ -5170,19 +5170,19 @@
         <v>105967</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>98311</v>
+        <v>97758</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>110209</v>
+        <v>110246</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9439182147255007</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8757177540464886</v>
+        <v>0.8707933263135871</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9817024549358758</v>
+        <v>0.9820376160650307</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>123</v>
@@ -5191,19 +5191,19 @@
         <v>135873</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>128896</v>
+        <v>130024</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>139908</v>
+        <v>139811</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9571062927466248</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9079645774520053</v>
+        <v>0.9159056010283141</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9855324777222308</v>
+        <v>0.9848487156531617</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>218</v>
@@ -5212,19 +5212,19 @@
         <v>241841</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>233101</v>
+        <v>232057</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>247965</v>
+        <v>247151</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9512825837839144</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9169038423747163</v>
+        <v>0.9127986587100254</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9753741216523785</v>
+        <v>0.9721688008283407</v>
       </c>
     </row>
     <row r="31">
@@ -5329,19 +5329,19 @@
         <v>3259</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>8862</v>
+        <v>8886</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01981997520396276</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.006092086079955177</v>
+        <v>0.006073514881216306</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.05390097042569231</v>
+        <v>0.05404342815641128</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3</v>
@@ -5350,19 +5350,19 @@
         <v>3259</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>980</v>
+        <v>997</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>8878</v>
+        <v>9611</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01142738494515978</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.00343502043448762</v>
+        <v>0.003495409824647354</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03113200288399583</v>
+        <v>0.03370156517946876</v>
       </c>
     </row>
     <row r="33">
@@ -5382,7 +5382,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>6826</v>
+        <v>7886</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01819631756477171</v>
@@ -5391,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.05652688098361323</v>
+        <v>0.06530657411908536</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>3</v>
@@ -5400,19 +5400,19 @@
         <v>3338</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>8981</v>
+        <v>9007</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.02030021724138507</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.006288021749090792</v>
+        <v>0.006239073008485246</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.05462406620570265</v>
+        <v>0.05477847929648253</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>5</v>
@@ -5421,19 +5421,19 @@
         <v>5535</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>2147</v>
+        <v>2156</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>12346</v>
+        <v>12369</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01940933984372245</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.007530383541335279</v>
+        <v>0.007561899886856186</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.04329244835453738</v>
+        <v>0.04337568655479385</v>
       </c>
     </row>
     <row r="34">
@@ -5450,7 +5450,7 @@
         <v>118555</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>113926</v>
+        <v>112866</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>120752</v>
@@ -5459,7 +5459,7 @@
         <v>0.9818036824352283</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9434731190163869</v>
+        <v>0.9346934258809146</v>
       </c>
       <c r="I34" s="6" t="n">
         <v>1</v>
@@ -5471,19 +5471,19 @@
         <v>157821</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>150780</v>
+        <v>150999</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>162151</v>
+        <v>162110</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.9598798075546522</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.917059673187017</v>
+        <v>0.9183897650066439</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9862204884758975</v>
+        <v>0.9859695215116113</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>249</v>
@@ -5492,19 +5492,19 @@
         <v>276375</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>268254</v>
+        <v>268437</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>280947</v>
+        <v>280970</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9691632752111178</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9406838944980843</v>
+        <v>0.9413254493063382</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.985193436640816</v>
+        <v>0.9852739903560402</v>
       </c>
     </row>
     <row r="35">
@@ -5596,19 +5596,19 @@
         <v>7172</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3097</v>
+        <v>3081</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>14087</v>
+        <v>14414</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01281504064538234</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.00553405944379542</v>
+        <v>0.005505689737754913</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02517123669495992</v>
+        <v>0.02575518389268858</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>18</v>
@@ -5617,19 +5617,19 @@
         <v>20567</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>12892</v>
+        <v>12966</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>32022</v>
+        <v>31211</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02768133064459723</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01735217571572035</v>
+        <v>0.0174518218939808</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.04310022993242763</v>
+        <v>0.04200853710322498</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>25</v>
@@ -5638,19 +5638,19 @@
         <v>27738</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>18062</v>
+        <v>18216</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>39580</v>
+        <v>41375</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02129437408746014</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01386594973487958</v>
+        <v>0.01398417608526227</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03038499261959339</v>
+        <v>0.03176311076225444</v>
       </c>
     </row>
     <row r="37">
@@ -5667,19 +5667,19 @@
         <v>17386</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>10371</v>
+        <v>9767</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>28041</v>
+        <v>28986</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03106641649654497</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01853122504779899</v>
+        <v>0.0174532372469339</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05010485224868552</v>
+        <v>0.05179428548364484</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>19</v>
@@ -5688,19 +5688,19 @@
         <v>20358</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>11824</v>
+        <v>12742</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>31061</v>
+        <v>30823</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.0274013219958925</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01591463312849963</v>
+        <v>0.01715062463590068</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04180651543370076</v>
+        <v>0.04148604405380475</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>33</v>
@@ -5709,19 +5709,19 @@
         <v>37744</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>26854</v>
+        <v>26480</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>53117</v>
+        <v>52133</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02897594480728025</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02061515842160028</v>
+        <v>0.02032860320750209</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04077742210594641</v>
+        <v>0.04002166320179351</v>
       </c>
     </row>
     <row r="38">
@@ -5738,19 +5738,19 @@
         <v>535079</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>523336</v>
+        <v>522665</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>543292</v>
+        <v>543920</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9561185428580727</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9351353915628097</v>
+        <v>0.9339358007288864</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9707936743555293</v>
+        <v>0.9719148797590047</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>657</v>
@@ -5759,19 +5759,19 @@
         <v>702050</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>686814</v>
+        <v>689004</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>714016</v>
+        <v>714049</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9449173473595103</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9244103935014045</v>
+        <v>0.9273576313906898</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.961023554742283</v>
+        <v>0.9610673766822816</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1140</v>
@@ -5780,19 +5780,19 @@
         <v>1237129</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1217782</v>
+        <v>1219230</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1252429</v>
+        <v>1252825</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9497296811052596</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9348771994925408</v>
+        <v>0.9359884993412694</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9614752360246779</v>
+        <v>0.9617789309357729</v>
       </c>
     </row>
     <row r="39">
@@ -6144,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6423</v>
+        <v>5837</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02279637912799238</v>
@@ -6153,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1300452469142142</v>
+        <v>0.1181813639447069</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4712</v>
+        <v>6181</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01275315984464738</v>
@@ -6174,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05336643909738383</v>
+        <v>0.07001520312777471</v>
       </c>
     </row>
     <row r="5">
@@ -6191,19 +6191,19 @@
         <v>2440</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>776</v>
+        <v>786</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6706</v>
+        <v>6497</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0627197130013593</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01994222571919773</v>
+        <v>0.02022022379046607</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1724085782407559</v>
+        <v>0.1670286116884884</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5086</v>
+        <v>5131</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02100587542401088</v>
@@ -6224,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1029773402457748</v>
+        <v>0.1038889343626112</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -6233,19 +6233,19 @@
         <v>3477</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1043</v>
+        <v>843</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8281</v>
+        <v>9174</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03938340878520665</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01181465484799602</v>
+        <v>0.009553891446875679</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09379185190745055</v>
+        <v>0.1039152600715624</v>
       </c>
     </row>
     <row r="6">
@@ -6262,19 +6262,19 @@
         <v>36456</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>32190</v>
+        <v>32399</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>38120</v>
+        <v>38110</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9372802869986407</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8275914217592442</v>
+        <v>0.8329713883115116</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9800577742808023</v>
+        <v>0.9797797762095339</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>41</v>
@@ -6283,7 +6283,7 @@
         <v>47228</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>41882</v>
+        <v>42744</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>49391</v>
@@ -6292,7 +6292,7 @@
         <v>0.9561977454479967</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8479743623861662</v>
+        <v>0.8654219421773208</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -6304,19 +6304,19 @@
         <v>83684</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>78608</v>
+        <v>77626</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>86629</v>
+        <v>86658</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9478634313701459</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8903721074526485</v>
+        <v>0.8792487098511025</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9812174795107046</v>
+        <v>0.981550645451881</v>
       </c>
     </row>
     <row r="7">
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5971</v>
+        <v>6789</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01169017170263493</v>
@@ -6433,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05181958469769304</v>
+        <v>0.05891596731638929</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -6445,7 +6445,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8358</v>
+        <v>6743</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.006651277175602036</v>
@@ -6454,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04126977341059864</v>
+        <v>0.03329703282665852</v>
       </c>
     </row>
     <row r="9">
@@ -6474,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5145</v>
+        <v>5116</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.011687496232151</v>
@@ -6483,7 +6483,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05893370082628439</v>
+        <v>0.05860638715581713</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -6508,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5159</v>
+        <v>4858</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.005037741300722658</v>
@@ -6517,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0254730662825186</v>
+        <v>0.02398635739371315</v>
       </c>
     </row>
     <row r="10">
@@ -6534,7 +6534,7 @@
         <v>86275</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>82150</v>
+        <v>82179</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>87295</v>
@@ -6543,7 +6543,7 @@
         <v>0.988312503767849</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9410662991737156</v>
+        <v>0.9413936128441827</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -6555,7 +6555,7 @@
         <v>113881</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>109257</v>
+        <v>108439</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>115228</v>
@@ -6564,7 +6564,7 @@
         <v>0.988309828297365</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9481804153023079</v>
+        <v>0.9410840326836107</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -6576,7 +6576,7 @@
         <v>200156</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>193780</v>
+        <v>194997</v>
       </c>
       <c r="T10" s="5" t="n">
         <v>202523</v>
@@ -6585,7 +6585,7 @@
         <v>0.9883109815236754</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9568320579631571</v>
+        <v>0.9628397388612197</v>
       </c>
       <c r="W10" s="6" t="n">
         <v>1</v>
@@ -6696,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10639</v>
+        <v>11711</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04060233459552366</v>
@@ -6705,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1331543920862359</v>
+        <v>0.1465777635545702</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -6717,7 +6717,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10758</v>
+        <v>10050</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0226152795791326</v>
@@ -6726,7 +6726,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0749998952739447</v>
+        <v>0.0700632411251739</v>
       </c>
     </row>
     <row r="13">
@@ -6746,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6511</v>
+        <v>6169</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01970043192328842</v>
@@ -6755,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1024634802516183</v>
+        <v>0.09708275511167674</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -6767,7 +6767,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5971</v>
+        <v>6968</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01543591743134758</v>
@@ -6776,7 +6776,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07472813690113868</v>
+        <v>0.0872108498340398</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -6788,7 +6788,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8347</v>
+        <v>7674</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01732512054119028</v>
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05819267354758881</v>
+        <v>0.05349891417234829</v>
       </c>
     </row>
     <row r="14">
@@ -6814,7 +6814,7 @@
         <v>62294</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>57035</v>
+        <v>57377</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>63546</v>
@@ -6823,7 +6823,7 @@
         <v>0.9802995680767116</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8975365197483862</v>
+        <v>0.9029172448883228</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -6835,19 +6835,19 @@
         <v>75420</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>67834</v>
+        <v>67923</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>78667</v>
+        <v>78663</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9439617479731287</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8490142815936794</v>
+        <v>0.8501278888495246</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9846017472934825</v>
+        <v>0.9845503600439341</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>137</v>
@@ -6856,19 +6856,19 @@
         <v>137714</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>129890</v>
+        <v>129939</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>142151</v>
+        <v>141450</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9600595998796772</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9055150519064056</v>
+        <v>0.9058573971694747</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9909957813287065</v>
+        <v>0.9861071633285033</v>
       </c>
     </row>
     <row r="15">
@@ -7010,7 +7010,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5725</v>
+        <v>6273</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02737913424969048</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08846793356212815</v>
+        <v>0.09693234190299463</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7060</v>
+        <v>6591</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02373934135146216</v>
@@ -7040,7 +7040,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07709888300041126</v>
+        <v>0.0719793886264936</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -7049,19 +7049,19 @@
         <v>3946</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1182</v>
+        <v>971</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>9223</v>
+        <v>9581</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02524643724817047</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.007561035806398179</v>
+        <v>0.006213955748715847</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05901335515955072</v>
+        <v>0.061306325640941</v>
       </c>
     </row>
     <row r="18">
@@ -7078,7 +7078,7 @@
         <v>62940</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>58987</v>
+        <v>58439</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>64712</v>
@@ -7087,7 +7087,7 @@
         <v>0.9726208657503095</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9115320664378713</v>
+        <v>0.9030676580970071</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -7099,7 +7099,7 @@
         <v>89400</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>84514</v>
+        <v>84983</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>91574</v>
@@ -7108,7 +7108,7 @@
         <v>0.9762606586485378</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.922901116999589</v>
+        <v>0.9280206113735067</v>
       </c>
       <c r="P18" s="6" t="n">
         <v>1</v>
@@ -7120,19 +7120,19 @@
         <v>152339</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>147062</v>
+        <v>146704</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>155103</v>
+        <v>155314</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9747535627518296</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9409866448404494</v>
+        <v>0.9386936743590589</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9924389641936019</v>
+        <v>0.9937860442512841</v>
       </c>
     </row>
     <row r="19">
@@ -7440,19 +7440,19 @@
         <v>2752</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7530</v>
+        <v>7224</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05679887626931152</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0170627599201795</v>
+        <v>0.01701027047773099</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1554277287357577</v>
+        <v>0.1491049921130001</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -7464,7 +7464,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8463</v>
+        <v>7260</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03640538033693026</v>
@@ -7473,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1255856853345257</v>
+        <v>0.1077403092953522</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>5</v>
@@ -7482,19 +7482,19 @@
         <v>5205</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1925</v>
+        <v>2092</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>12096</v>
+        <v>12080</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04493469998648018</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01661515121315802</v>
+        <v>0.01805926349581899</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1044238668197398</v>
+        <v>0.1042830762154807</v>
       </c>
     </row>
     <row r="25">
@@ -7511,19 +7511,19 @@
         <v>4017</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1556</v>
+        <v>1566</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8905</v>
+        <v>8774</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08291859711021843</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0321214532588637</v>
+        <v>0.03231718666125976</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1838167707326076</v>
+        <v>0.1810991853003374</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -7532,19 +7532,19 @@
         <v>3260</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>943</v>
+        <v>965</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7961</v>
+        <v>9630</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0483703663498016</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01399922072746329</v>
+        <v>0.0143203107340776</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1181330550786023</v>
+        <v>0.1429009350227848</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -7553,19 +7553,19 @@
         <v>7277</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3292</v>
+        <v>3418</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>13608</v>
+        <v>13835</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06281972336338358</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02842387292650148</v>
+        <v>0.02950428527501133</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1174759649277356</v>
+        <v>0.1194390098817942</v>
       </c>
     </row>
     <row r="26">
@@ -7582,19 +7582,19 @@
         <v>41677</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>36301</v>
+        <v>36713</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>45252</v>
+        <v>45331</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.86028252662047</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7493147871114945</v>
+        <v>0.7578156048472239</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9340647359783283</v>
+        <v>0.9356939411157176</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>54</v>
@@ -7603,19 +7603,19 @@
         <v>61675</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>55562</v>
+        <v>55411</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>65497</v>
+        <v>65307</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9152242533132682</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8245079660433137</v>
+        <v>0.8222608270694873</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9719322378914722</v>
+        <v>0.9691130417755841</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>101</v>
@@ -7624,19 +7624,19 @@
         <v>103352</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>95908</v>
+        <v>95434</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>108457</v>
+        <v>108674</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8922455766501363</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8279814802346575</v>
+        <v>0.823885890641743</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.936315154157611</v>
+        <v>0.9381910499996663</v>
       </c>
     </row>
     <row r="27">
@@ -7728,19 +7728,19 @@
         <v>2716</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>880</v>
+        <v>887</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7455</v>
+        <v>7399</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02420965451540992</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007841293288815282</v>
+        <v>0.007908105762968512</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06645508395792728</v>
+        <v>0.06595062142770941</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -7752,7 +7752,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>6478</v>
+        <v>6411</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.008610170099561013</v>
@@ -7761,7 +7761,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0438831403186699</v>
+        <v>0.04342745400622218</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -7770,19 +7770,19 @@
         <v>3987</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1248</v>
+        <v>932</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>9890</v>
+        <v>10149</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01534599380992342</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.004802095594223578</v>
+        <v>0.00358581420904208</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03806658732744665</v>
+        <v>0.03906342684433091</v>
       </c>
     </row>
     <row r="29">
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4819</v>
+        <v>4432</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.007935842788833062</v>
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04295468403048702</v>
+        <v>0.03950352356211288</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -7820,19 +7820,19 @@
         <v>3852</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10513</v>
+        <v>11334</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02609237038901267</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.008195417713667158</v>
+        <v>0.008169045558268669</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0712138525793069</v>
+        <v>0.07677328606700731</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -7841,19 +7841,19 @@
         <v>4742</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1290</v>
+        <v>1275</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>11335</v>
+        <v>12026</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01825242094921679</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.004965647567782962</v>
+        <v>0.004907158845271963</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04362690204892162</v>
+        <v>0.04628935078824171</v>
       </c>
     </row>
     <row r="30">
@@ -7870,19 +7870,19 @@
         <v>108579</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>103563</v>
+        <v>103856</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>111279</v>
+        <v>111263</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.967854502695757</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9231411875467376</v>
+        <v>0.9257575059625919</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9919234185076088</v>
+        <v>0.9917832024939794</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>121</v>
@@ -7891,19 +7891,19 @@
         <v>142502</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>134356</v>
+        <v>135473</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>146329</v>
+        <v>146339</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9652974595114263</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9101139099161375</v>
+        <v>0.9176864189037774</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9912194319707865</v>
+        <v>0.9912914549829832</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>226</v>
@@ -7912,19 +7912,19 @@
         <v>251081</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>243275</v>
+        <v>242409</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>255500</v>
+        <v>255467</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9664015852408598</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.936357226945008</v>
+        <v>0.9330253704578906</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9834106362822417</v>
+        <v>0.9832856075225667</v>
       </c>
     </row>
     <row r="31">
@@ -8066,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>3359</v>
+        <v>4631</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.006032252099316164</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02503679293014301</v>
+        <v>0.03451789047554467</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>2</v>
@@ -8087,7 +8087,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>9121</v>
+        <v>8687</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.01448102134506497</v>
@@ -8096,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.05173551067178319</v>
+        <v>0.04927679509306816</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>3</v>
@@ -8105,19 +8105,19 @@
         <v>3362</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>9568</v>
+        <v>9178</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01082986314162949</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.002602758925013474</v>
+        <v>0.002569707433143286</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.03081943419866034</v>
+        <v>0.02956177401688511</v>
       </c>
     </row>
     <row r="34">
@@ -8134,7 +8134,7 @@
         <v>133359</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>130809</v>
+        <v>129537</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>134168</v>
@@ -8143,7 +8143,7 @@
         <v>0.9939677479006839</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9749632070698572</v>
+        <v>0.9654821095244558</v>
       </c>
       <c r="I34" s="6" t="n">
         <v>1</v>
@@ -8155,7 +8155,7 @@
         <v>173744</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>167176</v>
+        <v>167610</v>
       </c>
       <c r="M34" s="5" t="n">
         <v>176297</v>
@@ -8164,7 +8164,7 @@
         <v>0.985518978654935</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9482644893282176</v>
+        <v>0.950723204906932</v>
       </c>
       <c r="P34" s="6" t="n">
         <v>1</v>
@@ -8176,19 +8176,19 @@
         <v>307103</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>300897</v>
+        <v>301287</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>309657</v>
+        <v>309667</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9891701368583705</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9691805658013394</v>
+        <v>0.9704382259831148</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9973972410749865</v>
+        <v>0.9974302925668567</v>
       </c>
     </row>
     <row r="35">
@@ -8280,19 +8280,19 @@
         <v>5468</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2518</v>
+        <v>2641</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>11695</v>
+        <v>11829</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.009246389023633096</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.004258976510613297</v>
+        <v>0.00446570114790034</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01977822276548868</v>
+        <v>0.02000448643722856</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>7</v>
@@ -8301,19 +8301,19 @@
         <v>9441</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3749</v>
+        <v>3776</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>18311</v>
+        <v>18522</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01213646295226256</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.004819405425333517</v>
+        <v>0.004853905778830279</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02353749331326708</v>
+        <v>0.02380964118619344</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>13</v>
@@ -8322,19 +8322,19 @@
         <v>14909</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>7712</v>
+        <v>7612</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>25522</v>
+        <v>23890</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01088835603204506</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.005632408052102133</v>
+        <v>0.005559268966360116</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01863919728599998</v>
+        <v>0.01744761449055322</v>
       </c>
     </row>
     <row r="37">
@@ -8351,19 +8351,19 @@
         <v>12200</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>6636</v>
+        <v>6886</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>20006</v>
+        <v>19213</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02063172477147526</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01122216033787344</v>
+        <v>0.01164454292966053</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.03383208634079743</v>
+        <v>0.03249158621987115</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>12</v>
@@ -8372,19 +8372,19 @@
         <v>14109</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>7568</v>
+        <v>7316</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>23176</v>
+        <v>22778</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01813667334404181</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.00972896518560739</v>
+        <v>0.009404185247393547</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0297918206498631</v>
+        <v>0.02927964159583281</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>26</v>
@@ -8393,19 +8393,19 @@
         <v>26309</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>16989</v>
+        <v>17046</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>37350</v>
+        <v>38147</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01921418590246796</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01240743075940439</v>
+        <v>0.01244934228057986</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02727736918134331</v>
+        <v>0.02785945985364659</v>
       </c>
     </row>
     <row r="38">
@@ -8422,19 +8422,19 @@
         <v>573660</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>564810</v>
+        <v>563887</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>580403</v>
+        <v>580085</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9701218862048916</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9551557465414221</v>
+        <v>0.9535949488093393</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9815248110086831</v>
+        <v>0.9809875254299332</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>636</v>
@@ -8443,19 +8443,19 @@
         <v>754381</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>742882</v>
+        <v>741490</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>764127</v>
+        <v>763083</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9697268637036957</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9549452713131208</v>
+        <v>0.9531563918275667</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9822550729501399</v>
+        <v>0.9809137304077346</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1243</v>
@@ -8464,19 +8464,19 @@
         <v>1328041</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1314535</v>
+        <v>1314356</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1339881</v>
+        <v>1340697</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.969897458065487</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.960033762157668</v>
+        <v>0.9599028173424158</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9785447480927153</v>
+        <v>0.9791403682158067</v>
       </c>
     </row>
     <row r="39">
@@ -9044,7 +9044,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6168</v>
+        <v>6135</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01421754070376858</v>
@@ -9053,7 +9053,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04557926531971596</v>
+        <v>0.04533157273531731</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -9065,7 +9065,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6989</v>
+        <v>6952</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.008600893628728947</v>
@@ -9074,7 +9074,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03124115141461797</v>
+        <v>0.03107760006052895</v>
       </c>
     </row>
     <row r="9">
@@ -9094,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5882</v>
+        <v>5880</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01048380568369687</v>
@@ -9103,7 +9103,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06655514307244974</v>
+        <v>0.06654067249813161</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>8</v>
@@ -9112,19 +9112,19 @@
         <v>4877</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1918</v>
+        <v>2354</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8845</v>
+        <v>9105</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03603538450711156</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01417136843280434</v>
+        <v>0.01739281435819593</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0653628184620567</v>
+        <v>0.06728009480870388</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>9</v>
@@ -9133,19 +9133,19 @@
         <v>5803</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2574</v>
+        <v>2777</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>10293</v>
+        <v>10905</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02594121959832843</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01150471710773529</v>
+        <v>0.01241276931538125</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04601189518881471</v>
+        <v>0.04874607842836306</v>
       </c>
     </row>
     <row r="10">
@@ -9162,7 +9162,7 @@
         <v>87447</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>82491</v>
+        <v>82493</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>88373</v>
@@ -9171,7 +9171,7 @@
         <v>0.9895161943163032</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9334448569275459</v>
+        <v>0.933459327501867</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -9183,19 +9183,19 @@
         <v>128527</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>123495</v>
+        <v>123226</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>131958</v>
+        <v>132027</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9497470747891198</v>
+        <v>0.9497470747891199</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9125574227051088</v>
+        <v>0.9105710412535634</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9750985564385006</v>
+        <v>0.9756077206555437</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>307</v>
@@ -9204,19 +9204,19 @@
         <v>215974</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>210632</v>
+        <v>210111</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>219897</v>
+        <v>219681</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9654578867729425</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9415797419301838</v>
+        <v>0.9392487929949622</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9829972687002565</v>
+        <v>0.9820312324898774</v>
       </c>
     </row>
     <row r="11">
@@ -9311,16 +9311,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3041</v>
+        <v>3045</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.008425226696960275</v>
+        <v>0.008425226696960273</v>
       </c>
       <c r="H12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04207275623454238</v>
+        <v>0.04212962624898697</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -9329,19 +9329,19 @@
         <v>1466</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>3980</v>
+        <v>4083</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01707811649606739</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.004604412856337565</v>
+        <v>0.004663597171029579</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04636286342621522</v>
+        <v>0.04756096537208351</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4</v>
@@ -9350,19 +9350,19 @@
         <v>2075</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>605</v>
+        <v>545</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>5013</v>
+        <v>4809</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01312280049060769</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.003826409643844385</v>
+        <v>0.003443871065360824</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03170074407513935</v>
+        <v>0.03040908111526889</v>
       </c>
     </row>
     <row r="13">
@@ -9382,16 +9382,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3795</v>
+        <v>3510</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.01581300068038393</v>
+        <v>0.01581300068038392</v>
       </c>
       <c r="H13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05249576477267411</v>
+        <v>0.04855861481642794</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -9403,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3561</v>
+        <v>3352</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01289161694476573</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04147585786974647</v>
+        <v>0.03904634056195893</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -9421,19 +9421,19 @@
         <v>2250</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5122</v>
+        <v>5620</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.01422700848630282</v>
+        <v>0.01422700848630283</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003650362634040951</v>
+        <v>0.00362483445626674</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03238692897840854</v>
+        <v>0.03553729179557141</v>
       </c>
     </row>
     <row r="14">
@@ -9450,19 +9450,19 @@
         <v>70533</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>67150</v>
+        <v>67729</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>71753</v>
+        <v>71754</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9757617726226557</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.928959346349885</v>
+        <v>0.936974069040678</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9926338151402347</v>
+        <v>0.9926588859922342</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>164</v>
@@ -9471,19 +9471,19 @@
         <v>83277</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>80295</v>
+        <v>80495</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>84925</v>
+        <v>84911</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.970030266559167</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9352934967615589</v>
+        <v>0.9376246140362102</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9892215400176112</v>
+        <v>0.9890599526863459</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>283</v>
@@ -9492,19 +9492,19 @@
         <v>153810</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>150174</v>
+        <v>150540</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>156083</v>
+        <v>156224</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9726501910230895</v>
+        <v>0.9726501910230896</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9496552514713907</v>
+        <v>0.9519686880011924</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9870218724604688</v>
+        <v>0.987914860797759</v>
       </c>
     </row>
     <row r="15">
@@ -9612,7 +9612,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2858</v>
+        <v>2544</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007570097850261785</v>
@@ -9621,7 +9621,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0258644648689827</v>
+        <v>0.02302201372202555</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -9633,7 +9633,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2940</v>
+        <v>3009</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004319551086943425</v>
@@ -9642,7 +9642,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01518025090301588</v>
+        <v>0.01553565989677472</v>
       </c>
     </row>
     <row r="17">
@@ -9662,7 +9662,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5157</v>
+        <v>4774</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01015540910456891</v>
@@ -9671,7 +9671,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06201876538709187</v>
+        <v>0.05740776921705922</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -9680,19 +9680,19 @@
         <v>1782</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4379</v>
+        <v>4849</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01612342386202627</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.003978005683741045</v>
+        <v>0.003918337968354466</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03962689489607683</v>
+        <v>0.04387793666690411</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -9701,19 +9701,19 @@
         <v>2626</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>898</v>
+        <v>872</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6512</v>
+        <v>6188</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01356080030853834</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.004636848083111275</v>
+        <v>0.004502966410473718</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03362621868600856</v>
+        <v>0.03195180990499868</v>
       </c>
     </row>
     <row r="18">
@@ -9730,7 +9730,7 @@
         <v>82312</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>77999</v>
+        <v>78382</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>83156</v>
@@ -9739,7 +9739,7 @@
         <v>0.9898445908954311</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9379812346129056</v>
+        <v>0.9425922307829387</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -9751,19 +9751,19 @@
         <v>107886</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>105267</v>
+        <v>105307</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>109603</v>
+        <v>109618</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9763064782877121</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9526124962824967</v>
+        <v>0.9529664447116087</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9918429150341113</v>
+        <v>0.9919844475624642</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>367</v>
@@ -9772,19 +9772,19 @@
         <v>190197</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>186418</v>
+        <v>186666</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>191997</v>
+        <v>192311</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9821196486045183</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.962605233319014</v>
+        <v>0.9638836238217946</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9914144664859333</v>
+        <v>0.9930336015884564</v>
       </c>
     </row>
     <row r="19">
@@ -9923,19 +9923,19 @@
         <v>1980</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>491</v>
+        <v>513</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4461</v>
+        <v>4473</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.05425111636779897</v>
+        <v>0.05425111636779894</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01344869313848531</v>
+        <v>0.01406383844890753</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1222066344479776</v>
+        <v>0.1225485845535687</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>18</v>
@@ -9944,19 +9944,19 @@
         <v>7060</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4137</v>
+        <v>4322</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>10542</v>
+        <v>10534</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1147220769533322</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06721701694973706</v>
+        <v>0.07022330729897101</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1713029966723018</v>
+        <v>0.1711741832087638</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>22</v>
@@ -9965,19 +9965,19 @@
         <v>9041</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>5806</v>
+        <v>5765</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>13142</v>
+        <v>13182</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.09220820025140414</v>
+        <v>0.09220820025140412</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05921676349229113</v>
+        <v>0.05880043929657276</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1340379153934323</v>
+        <v>0.1344509708439433</v>
       </c>
     </row>
     <row r="22">
@@ -9994,19 +9994,19 @@
         <v>34523</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>32042</v>
+        <v>32030</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>36012</v>
+        <v>35990</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9457488836322011</v>
+        <v>0.9457488836322009</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8777933655520226</v>
+        <v>0.8774514154464315</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9865513068615147</v>
+        <v>0.9859361615510925</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>147</v>
@@ -10015,19 +10015,19 @@
         <v>54482</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>51000</v>
+        <v>51008</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>57405</v>
+        <v>57220</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8852779230466677</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8286970033276982</v>
+        <v>0.8288258167912365</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.932782983050263</v>
+        <v>0.9297766927010293</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>214</v>
@@ -10036,19 +10036,19 @@
         <v>89004</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>84903</v>
+        <v>84863</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>92239</v>
+        <v>92280</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.907791799748596</v>
+        <v>0.9077917997485959</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8659620846065674</v>
+        <v>0.8655490291560569</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9407832365077088</v>
+        <v>0.9411995607034275</v>
       </c>
     </row>
     <row r="23">
@@ -10140,19 +10140,19 @@
         <v>2083</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>767</v>
+        <v>826</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4558</v>
+        <v>4769</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03458094134376608</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01274151671435824</v>
+        <v>0.01371929434972691</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07569137960186402</v>
+        <v>0.07919324605881514</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>8</v>
@@ -10161,19 +10161,19 @@
         <v>3359</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1530</v>
+        <v>1676</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6257</v>
+        <v>6831</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.04990525204855609</v>
+        <v>0.0499052520485561</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02273209784890293</v>
+        <v>0.0248978641032393</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09295359139973113</v>
+        <v>0.1014852034476844</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>13</v>
@@ -10182,19 +10182,19 @@
         <v>5442</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3131</v>
+        <v>3016</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>9103</v>
+        <v>9129</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.04266876090558139</v>
+        <v>0.0426687609055814</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0245510081267424</v>
+        <v>0.02364582481431114</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07137591094184875</v>
+        <v>0.07158286766922427</v>
       </c>
     </row>
     <row r="25">
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3044</v>
+        <v>3378</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01683338934759956</v>
@@ -10223,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05053865495965366</v>
+        <v>0.05609516292990548</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -10235,7 +10235,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2404</v>
+        <v>2507</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01021143092880163</v>
@@ -10244,7 +10244,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03571721297737524</v>
+        <v>0.03724782263378859</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -10253,19 +10253,19 @@
         <v>1701</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4504</v>
+        <v>4333</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0133384716401205</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003993924037418673</v>
+        <v>0.003976577225156805</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03531655317933089</v>
+        <v>0.03397467676759433</v>
       </c>
     </row>
     <row r="26">
@@ -10282,19 +10282,19 @@
         <v>57128</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>53998</v>
+        <v>54118</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>58820</v>
+        <v>58777</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9485856693086343</v>
+        <v>0.9485856693086344</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8966140865155111</v>
+        <v>0.8986167480282635</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9766794252241841</v>
+        <v>0.9759802566551782</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>167</v>
@@ -10303,19 +10303,19 @@
         <v>63263</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>60408</v>
+        <v>59695</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>65398</v>
+        <v>65071</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9398833170226424</v>
+        <v>0.9398833170226423</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8974738282970839</v>
+        <v>0.8868727758976884</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9716026931300966</v>
+        <v>0.9667548819731359</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>295</v>
@@ -10324,19 +10324,19 @@
         <v>120389</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>116409</v>
+        <v>116263</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>123145</v>
+        <v>123193</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9439927674542981</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9127797144298951</v>
+        <v>0.9116364653768311</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9655982427145355</v>
+        <v>0.965977217214619</v>
       </c>
     </row>
     <row r="27">
@@ -10441,19 +10441,19 @@
         <v>2547</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>6979</v>
+        <v>8471</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01551539509268024</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.004035079293257572</v>
+        <v>0.004003095910531186</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0425141362888686</v>
+        <v>0.05160247810580933</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3</v>
@@ -10462,19 +10462,19 @@
         <v>2547</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>8311</v>
+        <v>7442</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.008073023812359716</v>
+        <v>0.008073023812359718</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.002097196989568529</v>
+        <v>0.002077096166757803</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02634052335315924</v>
+        <v>0.02358666185928809</v>
       </c>
     </row>
     <row r="29">
@@ -10491,19 +10491,19 @@
         <v>2732</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7311</v>
+        <v>7286</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01805077884993463</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.005851868053239754</v>
+        <v>0.005806131693769535</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04830703185994745</v>
+        <v>0.04814372919686252</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>7</v>
@@ -10512,19 +10512,19 @@
         <v>4594</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1942</v>
+        <v>1946</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9189</v>
+        <v>9329</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02798358391065983</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01183076683928684</v>
+        <v>0.01185328776216687</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05597154269648679</v>
+        <v>0.05682422192715392</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>10</v>
@@ -10533,19 +10533,19 @@
         <v>7326</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3519</v>
+        <v>3575</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>12742</v>
+        <v>12692</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.02321905018945031</v>
+        <v>0.02321905018945032</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01115391704062162</v>
+        <v>0.01133036181125529</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04038694509303365</v>
+        <v>0.04022641554628063</v>
       </c>
     </row>
     <row r="30">
@@ -10562,19 +10562,19 @@
         <v>148609</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>144030</v>
+        <v>144055</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>150455</v>
+        <v>150462</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.9819492211500652</v>
+        <v>0.9819492211500654</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9516929681400526</v>
+        <v>0.9518562708031377</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9941481319467602</v>
+        <v>0.9941938683062306</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>231</v>
@@ -10583,19 +10583,19 @@
         <v>157025</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>150779</v>
+        <v>150389</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>160335</v>
+        <v>160225</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9565010209966599</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9184554846910005</v>
+        <v>0.9160780084565239</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9766636260596063</v>
+        <v>0.9759940943176222</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>396</v>
@@ -10604,19 +10604,19 @@
         <v>305634</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>298695</v>
+        <v>299252</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>310178</v>
+        <v>309787</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.9687079259981898</v>
+        <v>0.96870792599819</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9467142442354922</v>
+        <v>0.9484782488340923</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9831089330478586</v>
+        <v>0.981870865832458</v>
       </c>
     </row>
     <row r="31">
@@ -10721,19 +10721,19 @@
         <v>2964</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>9198</v>
+        <v>9818</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01393244307462223</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.002789795390511914</v>
+        <v>0.00280621937901961</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04323176012717688</v>
+        <v>0.04614682405722617</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3</v>
@@ -10745,16 +10745,16 @@
         <v>594</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>9756</v>
+        <v>9341</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.007890889478484446</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.001580975021382365</v>
+        <v>0.001580162599653117</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02596989822823246</v>
+        <v>0.0248653997480539</v>
       </c>
     </row>
     <row r="33">
@@ -10771,19 +10771,19 @@
         <v>4046</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1991</v>
+        <v>1383</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>9129</v>
+        <v>8119</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.02483397456535124</v>
+        <v>0.02483397456535125</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01222438621290272</v>
+        <v>0.008492591526099281</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.05603676003254032</v>
+        <v>0.04983784487878461</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>22</v>
@@ -10792,19 +10792,19 @@
         <v>14693</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>9137</v>
+        <v>9675</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>21314</v>
+        <v>22241</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.06905632480646834</v>
+        <v>0.06905632480646832</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.04294423656540258</v>
+        <v>0.04547284320737115</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1001744463115319</v>
+        <v>0.1045338176970065</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>28</v>
@@ -10813,19 +10813,19 @@
         <v>18738</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>12407</v>
+        <v>12542</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>26134</v>
+        <v>26866</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.04988009722757834</v>
+        <v>0.04988009722757835</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.03302561461642379</v>
+        <v>0.03338544774408233</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.069565656270931</v>
+        <v>0.07151452242158059</v>
       </c>
     </row>
     <row r="34">
@@ -10842,19 +10842,19 @@
         <v>158856</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>153773</v>
+        <v>154783</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>160911</v>
+        <v>161519</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.9751660254346488</v>
+        <v>0.9751660254346487</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9439632399674606</v>
+        <v>0.9501621551212153</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9877756137870972</v>
+        <v>0.9915074084739007</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>318</v>
@@ -10863,19 +10863,19 @@
         <v>195109</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>187010</v>
+        <v>186297</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>201249</v>
+        <v>200616</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.9170112321189094</v>
+        <v>0.9170112321189093</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8789478043721553</v>
+        <v>0.8755938173603023</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.945870939966013</v>
+        <v>0.9428959839858472</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>546</v>
@@ -10884,19 +10884,19 @@
         <v>353965</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>344877</v>
+        <v>345015</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>360332</v>
+        <v>361078</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.942229013293937</v>
+        <v>0.9422290132939372</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9180360011170089</v>
+        <v>0.9184052871525035</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.959177268177713</v>
+        <v>0.9611637412692156</v>
       </c>
     </row>
     <row r="35">
@@ -10988,19 +10988,19 @@
         <v>2692</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1111</v>
+        <v>1181</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5476</v>
+        <v>6130</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.003760598105823205</v>
+        <v>0.003760598105823204</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.001552647488826855</v>
+        <v>0.001650695147435617</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.007650918328751711</v>
+        <v>0.008564867318825315</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>21</v>
@@ -11009,19 +11009,19 @@
         <v>13097</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>8332</v>
+        <v>7631</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>20942</v>
+        <v>21049</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01450828022849856</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.009229740932860742</v>
+        <v>0.008453623169481691</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02319818670498809</v>
+        <v>0.02331728803175934</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>27</v>
@@ -11030,19 +11030,19 @@
         <v>15789</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>10310</v>
+        <v>10236</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>24054</v>
+        <v>24425</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.00975534086042785</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.006370102008576564</v>
+        <v>0.006324649597054075</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01486210034258747</v>
+        <v>0.01509153305455877</v>
       </c>
     </row>
     <row r="37">
@@ -11059,19 +11059,19 @@
         <v>12685</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>7946</v>
+        <v>7957</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>19784</v>
+        <v>19289</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.01772355788301084</v>
+        <v>0.01772355788301083</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01110176386107071</v>
+        <v>0.01111703548027171</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.02764191807503546</v>
+        <v>0.02695009142508027</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>63</v>
@@ -11080,19 +11080,19 @@
         <v>34799</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>27821</v>
+        <v>26792</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>44291</v>
+        <v>44040</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03854860165117262</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03081797334035595</v>
+        <v>0.02967890769982581</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04906264907619068</v>
+        <v>0.04878511950507799</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>82</v>
@@ -11101,19 +11101,19 @@
         <v>47485</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>37700</v>
+        <v>38620</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>58982</v>
+        <v>58806</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02933915823465546</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02329344831372117</v>
+        <v>0.02386197835087667</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03644295239206292</v>
+        <v>0.03633413672114417</v>
       </c>
     </row>
     <row r="38">
@@ -11130,19 +11130,19 @@
         <v>700361</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>692484</v>
+        <v>693234</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>705550</v>
+        <v>705542</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.9785158440111658</v>
+        <v>0.978515844011166</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9675098066976011</v>
+        <v>0.9685585027302359</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.985766275245484</v>
+        <v>0.9857550748115745</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1622</v>
@@ -11151,19 +11151,19 @@
         <v>854843</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>843305</v>
+        <v>842228</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>863834</v>
+        <v>863612</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9469431181203287</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9341612838361965</v>
+        <v>0.9329682044248883</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9569020394522617</v>
+        <v>0.9566560248446028</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2623</v>
@@ -11172,19 +11172,19 @@
         <v>1555204</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1541880</v>
+        <v>1541293</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1565937</v>
+        <v>1567059</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9609055009049168</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9526729554412702</v>
+        <v>0.9523102853717936</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9675369250683695</v>
+        <v>0.9682297359156516</v>
       </c>
     </row>
     <row r="39">
